--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Acvr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H2">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I2">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J2">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N2">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O2">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P2">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q2">
-        <v>1.528980465450667</v>
+        <v>1.104785101871778</v>
       </c>
       <c r="R2">
-        <v>13.760824189056</v>
+        <v>9.943065916845999</v>
       </c>
       <c r="S2">
-        <v>0.1252884483913476</v>
+        <v>0.0619853334778707</v>
       </c>
       <c r="T2">
-        <v>0.1252884483913476</v>
+        <v>0.06198533347787069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H3">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I3">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J3">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>39.444981</v>
       </c>
       <c r="O3">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P3">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q3">
-        <v>3.736999968837333</v>
+        <v>1.710996175285667</v>
       </c>
       <c r="R3">
-        <v>33.632999719536</v>
+        <v>15.398965577571</v>
       </c>
       <c r="S3">
-        <v>0.3062190383159284</v>
+        <v>0.09599755493150411</v>
       </c>
       <c r="T3">
-        <v>0.3062190383159285</v>
+        <v>0.09599755493150411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H4">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I4">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J4">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N4">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O4">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P4">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q4">
-        <v>1.51716492704</v>
+        <v>0.7327367531371111</v>
       </c>
       <c r="R4">
-        <v>13.65448434336</v>
+        <v>6.594630778233999</v>
       </c>
       <c r="S4">
-        <v>0.1243202538932286</v>
+        <v>0.0411111010799704</v>
       </c>
       <c r="T4">
-        <v>0.1243202538932286</v>
+        <v>0.0411111010799704</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,14 +714,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H5">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I5">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J5">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N5">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O5">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P5">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q5">
-        <v>2.874332366304</v>
+        <v>0.8768943556217776</v>
       </c>
       <c r="R5">
-        <v>25.868991296736</v>
+        <v>7.892049200595999</v>
       </c>
       <c r="S5">
-        <v>0.2355299171393358</v>
+        <v>0.0491992415230694</v>
       </c>
       <c r="T5">
-        <v>0.235529917139336</v>
+        <v>0.0491992415230694</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H6">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I6">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J6">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N6">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O6">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P6">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q6">
-        <v>0.2432360402453333</v>
+        <v>0.1220217387562222</v>
       </c>
       <c r="R6">
-        <v>2.189124362208</v>
+        <v>1.098195648806</v>
       </c>
       <c r="S6">
-        <v>0.01993136391458787</v>
+        <v>0.006846180452234127</v>
       </c>
       <c r="T6">
-        <v>0.01993136391458788</v>
+        <v>0.006846180452234126</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H7">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I7">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J7">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N7">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O7">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P7">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q7">
-        <v>1.447181385788444</v>
+        <v>0.7748386006624443</v>
       </c>
       <c r="R7">
-        <v>13.024632472096</v>
+        <v>6.973547405961999</v>
       </c>
       <c r="S7">
-        <v>0.118585629092934</v>
+        <v>0.04347327726651634</v>
       </c>
       <c r="T7">
-        <v>0.1185856290929341</v>
+        <v>0.04347327726651634</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H8">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I8">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J8">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N8">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O8">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P8">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q8">
-        <v>0.115306174928</v>
+        <v>2.412969678659556</v>
       </c>
       <c r="R8">
-        <v>1.037755574352</v>
+        <v>21.716727107936</v>
       </c>
       <c r="S8">
-        <v>0.009448473720305059</v>
+        <v>0.1353826458650618</v>
       </c>
       <c r="T8">
-        <v>0.009448473720305064</v>
+        <v>0.1353826458650617</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H9">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I9">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J9">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>39.444981</v>
       </c>
       <c r="O9">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P9">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q9">
-        <v>0.281821240918</v>
+        <v>3.736999968837333</v>
       </c>
       <c r="R9">
-        <v>2.536391168262</v>
+        <v>33.632999719536</v>
       </c>
       <c r="S9">
-        <v>0.02309313087785793</v>
+        <v>0.2096690015847614</v>
       </c>
       <c r="T9">
-        <v>0.02309313087785793</v>
+        <v>0.2096690015847613</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H10">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I10">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J10">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N10">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O10">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P10">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q10">
-        <v>0.11441512068</v>
+        <v>1.600376005038222</v>
       </c>
       <c r="R10">
-        <v>1.02973608612</v>
+        <v>14.403384045344</v>
       </c>
       <c r="S10">
-        <v>0.009375458527052389</v>
+        <v>0.08979107357096669</v>
       </c>
       <c r="T10">
-        <v>0.009375458527052394</v>
+        <v>0.08979107357096663</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,14 +1086,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H11">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I11">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J11">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N11">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O11">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P11">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q11">
-        <v>0.216764228268</v>
+        <v>1.915231738659555</v>
       </c>
       <c r="R11">
-        <v>1.950878054412</v>
+        <v>17.237085647936</v>
       </c>
       <c r="S11">
-        <v>0.01776219803988193</v>
+        <v>0.1074564436170257</v>
       </c>
       <c r="T11">
-        <v>0.01776219803988194</v>
+        <v>0.1074564436170257</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H12">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I12">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J12">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N12">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O12">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P12">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q12">
-        <v>0.018343345804</v>
+        <v>0.2665086225884445</v>
       </c>
       <c r="R12">
-        <v>0.165090112236</v>
+        <v>2.398577603296</v>
       </c>
       <c r="S12">
-        <v>0.001503099212854691</v>
+        <v>0.01495279563227673</v>
       </c>
       <c r="T12">
-        <v>0.001503099212854691</v>
+        <v>0.01495279563227672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,46 +1225,418 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
+        <v>0.2842186666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.852656</v>
+      </c>
+      <c r="I13">
+        <v>0.6522022811047395</v>
+      </c>
+      <c r="J13">
+        <v>0.6522022811047393</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.954327333333333</v>
+      </c>
+      <c r="N13">
+        <v>17.862982</v>
+      </c>
+      <c r="O13">
+        <v>0.1455841593712531</v>
+      </c>
+      <c r="P13">
+        <v>0.1455841593712531</v>
+      </c>
+      <c r="Q13">
+        <v>1.692330975576889</v>
+      </c>
+      <c r="R13">
+        <v>15.230978780192</v>
+      </c>
+      <c r="S13">
+        <v>0.09495032083464723</v>
+      </c>
+      <c r="T13">
+        <v>0.0949503208346472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
         <v>0.021434</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>0.064302</v>
       </c>
-      <c r="I13">
-        <v>0.07012534925263751</v>
-      </c>
-      <c r="J13">
-        <v>0.07012534925263753</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.091788666666666</v>
-      </c>
-      <c r="N13">
-        <v>15.275366</v>
-      </c>
-      <c r="O13">
-        <v>0.1275286179676195</v>
-      </c>
-      <c r="P13">
-        <v>0.1275286179676196</v>
-      </c>
-      <c r="Q13">
-        <v>0.1091373982813333</v>
-      </c>
-      <c r="R13">
-        <v>0.9822365845319998</v>
-      </c>
-      <c r="S13">
-        <v>0.008942988874685502</v>
-      </c>
-      <c r="T13">
-        <v>0.008942988874685509</v>
+      <c r="I14">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J14">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.489835333333334</v>
+      </c>
+      <c r="N14">
+        <v>25.469506</v>
+      </c>
+      <c r="O14">
+        <v>0.2075776945087381</v>
+      </c>
+      <c r="P14">
+        <v>0.2075776945087381</v>
+      </c>
+      <c r="Q14">
+        <v>0.1819711305346667</v>
+      </c>
+      <c r="R14">
+        <v>1.637740174812</v>
+      </c>
+      <c r="S14">
+        <v>0.01020971516580567</v>
+      </c>
+      <c r="T14">
+        <v>0.01020971516580567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.021434</v>
+      </c>
+      <c r="H15">
+        <v>0.064302</v>
+      </c>
+      <c r="I15">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J15">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>13.148327</v>
+      </c>
+      <c r="N15">
+        <v>39.444981</v>
+      </c>
+      <c r="O15">
+        <v>0.3214784855238645</v>
+      </c>
+      <c r="P15">
+        <v>0.3214784855238645</v>
+      </c>
+      <c r="Q15">
+        <v>0.281821240918</v>
+      </c>
+      <c r="R15">
+        <v>2.536391168262</v>
+      </c>
+      <c r="S15">
+        <v>0.01581192900759899</v>
+      </c>
+      <c r="T15">
+        <v>0.01581192900759899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.021434</v>
+      </c>
+      <c r="H16">
+        <v>0.064302</v>
+      </c>
+      <c r="I16">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J16">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.630791333333334</v>
+      </c>
+      <c r="N16">
+        <v>16.892374</v>
+      </c>
+      <c r="O16">
+        <v>0.1376736576555254</v>
+      </c>
+      <c r="P16">
+        <v>0.1376736576555254</v>
+      </c>
+      <c r="Q16">
+        <v>0.1206903814386667</v>
+      </c>
+      <c r="R16">
+        <v>1.086213432948</v>
+      </c>
+      <c r="S16">
+        <v>0.006771483004588367</v>
+      </c>
+      <c r="T16">
+        <v>0.006771483004588365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.021434</v>
+      </c>
+      <c r="H17">
+        <v>0.064302</v>
+      </c>
+      <c r="I17">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J17">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.738585333333333</v>
+      </c>
+      <c r="N17">
+        <v>20.215756</v>
+      </c>
+      <c r="O17">
+        <v>0.1647593802263456</v>
+      </c>
+      <c r="P17">
+        <v>0.1647593802263456</v>
+      </c>
+      <c r="Q17">
+        <v>0.1444348380346666</v>
+      </c>
+      <c r="R17">
+        <v>1.299913542312</v>
+      </c>
+      <c r="S17">
+        <v>0.008103695086250475</v>
+      </c>
+      <c r="T17">
+        <v>0.008103695086250475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.021434</v>
+      </c>
+      <c r="H18">
+        <v>0.064302</v>
+      </c>
+      <c r="I18">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J18">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9376886666666667</v>
+      </c>
+      <c r="N18">
+        <v>2.813066</v>
+      </c>
+      <c r="O18">
+        <v>0.02292662271427322</v>
+      </c>
+      <c r="P18">
+        <v>0.02292662271427321</v>
+      </c>
+      <c r="Q18">
+        <v>0.02009841888133333</v>
+      </c>
+      <c r="R18">
+        <v>0.180885769932</v>
+      </c>
+      <c r="S18">
+        <v>0.001127646629762364</v>
+      </c>
+      <c r="T18">
+        <v>0.001127646629762364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.021434</v>
+      </c>
+      <c r="H19">
+        <v>0.064302</v>
+      </c>
+      <c r="I19">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J19">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.954327333333333</v>
+      </c>
+      <c r="N19">
+        <v>17.862982</v>
+      </c>
+      <c r="O19">
+        <v>0.1455841593712531</v>
+      </c>
+      <c r="P19">
+        <v>0.1455841593712531</v>
+      </c>
+      <c r="Q19">
+        <v>0.1276250520626666</v>
+      </c>
+      <c r="R19">
+        <v>1.148625468564</v>
+      </c>
+      <c r="S19">
+        <v>0.007160561270089561</v>
+      </c>
+      <c r="T19">
+        <v>0.007160561270089561</v>
       </c>
     </row>
   </sheetData>
